--- a/チーム製作　あんぱんオリジナルゲーム/Book1.xlsx
+++ b/チーム製作　あんぱんオリジナルゲーム/Book1.xlsx
@@ -16,32 +16,6 @@
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>1(青)は壊せないブロック</t>
-  </si>
-  <si>
-    <t>*2は壊せないブロック</t>
-  </si>
-  <si>
-    <t>*2は壊せるブロック（予定）</t>
-  </si>
-  <si>
-    <t>3(黄)はスタートの場所（予定地）</t>
-  </si>
-  <si>
-    <t>4(緑)はゴールの場所（予定地）</t>
-  </si>
-  <si>
-    <t>5(赤)はアイテムの場所の予定地</t>
-  </si>
-  <si>
-    <t>0は空間</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78,19 +52,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9BBB59"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -107,19 +81,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -421,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="K195" sqref="K195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -458,10 +464,13 @@
       <c r="J1">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
         <v>1</v>
       </c>
     </row>
@@ -470,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -494,10 +503,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
@@ -529,10 +544,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -564,10 +585,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -599,10 +626,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -634,10 +667,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -669,6 +708,15 @@
         <v>0</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>1</v>
       </c>
     </row>
@@ -701,6 +749,15 @@
         <v>0</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>1</v>
       </c>
     </row>
@@ -733,6 +790,15 @@
         <v>0</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>1</v>
       </c>
     </row>
@@ -765,6 +831,15 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>1</v>
       </c>
     </row>
@@ -797,6 +872,15 @@
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>1</v>
       </c>
     </row>
@@ -829,6 +913,15 @@
         <v>0</v>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>1</v>
       </c>
     </row>
@@ -861,6 +954,15 @@
         <v>0</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>1</v>
       </c>
     </row>
@@ -893,6 +995,15 @@
         <v>0</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>1</v>
       </c>
     </row>
@@ -925,6 +1036,15 @@
         <v>0</v>
       </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>1</v>
       </c>
     </row>
@@ -957,10 +1077,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -991,8 +1120,17 @@
       <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1021,10 +1159,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1053,10 +1200,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1085,10 +1241,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1117,10 +1282,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1149,10 +1323,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1181,10 +1364,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1213,10 +1405,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1245,10 +1446,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1277,10 +1487,19 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1309,10 +1528,19 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1341,10 +1569,19 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1373,10 +1610,19 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1405,10 +1651,19 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1437,10 +1692,19 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1469,10 +1733,19 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1501,10 +1774,19 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1533,10 +1815,19 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1559,10 +1850,19 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1591,10 +1891,19 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1623,10 +1932,19 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1655,10 +1973,19 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1687,10 +2014,19 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1719,10 +2055,19 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1751,10 +2096,19 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1783,10 +2137,19 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1815,14 +2178,23 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>0</v>
       </c>
       <c r="C44">
@@ -1847,10 +2219,19 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1879,10 +2260,19 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1911,10 +2301,19 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1943,10 +2342,19 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1975,10 +2383,19 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2007,10 +2424,19 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2039,10 +2465,19 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2071,10 +2506,19 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2105,8 +2549,17 @@
       <c r="J52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2135,10 +2588,19 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2167,10 +2629,19 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2199,10 +2670,19 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2231,10 +2711,19 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2263,10 +2752,19 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2295,15 +2793,24 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" s="4">
-        <v>5</v>
+      <c r="B59" s="2">
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2327,10 +2834,19 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2359,10 +2875,19 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2391,10 +2916,19 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2423,10 +2957,19 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2455,10 +2998,19 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2487,10 +3039,19 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2521,8 +3082,17 @@
       <c r="J65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2551,10 +3121,19 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2583,10 +3162,19 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2615,10 +3203,19 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2647,10 +3244,19 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2679,10 +3285,19 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2711,10 +3326,19 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2743,10 +3367,19 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2775,10 +3408,19 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2807,10 +3449,19 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2839,10 +3490,19 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2871,10 +3531,19 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2903,10 +3572,19 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2935,10 +3613,19 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2967,10 +3654,19 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2999,10 +3695,19 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3031,10 +3736,19 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3063,10 +3777,19 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3095,10 +3818,19 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3127,10 +3859,19 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3159,10 +3900,19 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3191,10 +3941,19 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3223,10 +3982,19 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3255,10 +4023,19 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3287,10 +4064,19 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3319,10 +4105,19 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3351,10 +4146,19 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3383,10 +4187,19 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3415,10 +4228,19 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3447,10 +4269,19 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3479,10 +4310,19 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3513,8 +4353,17 @@
       <c r="J96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3545,8 +4394,17 @@
       <c r="J97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3575,10 +4433,19 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3607,10 +4474,19 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3639,10 +4515,19 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3671,10 +4556,19 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3703,10 +4597,19 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3735,10 +4638,19 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3767,10 +4679,19 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3799,10 +4720,19 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3831,10 +4761,19 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3863,10 +4802,19 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3895,10 +4843,19 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3927,10 +4884,19 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3959,10 +4925,19 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3993,8 +4968,17 @@
       <c r="J111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4023,10 +5007,19 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>1</v>
       </c>
@@ -4055,10 +5048,19 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>1</v>
       </c>
@@ -4087,10 +5089,19 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4119,10 +5130,19 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>1</v>
       </c>
@@ -4151,10 +5171,19 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>1</v>
       </c>
@@ -4183,10 +5212,19 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>1</v>
       </c>
@@ -4215,10 +5253,19 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4247,10 +5294,19 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>1</v>
       </c>
@@ -4273,16 +5329,25 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4311,10 +5376,19 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>1</v>
       </c>
@@ -4343,10 +5417,19 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4375,10 +5458,19 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4407,10 +5499,19 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>1</v>
       </c>
@@ -4439,10 +5540,19 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4471,10 +5581,19 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>1</v>
       </c>
@@ -4503,10 +5622,19 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4535,10 +5663,19 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>1</v>
       </c>
@@ -4567,10 +5704,19 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4599,10 +5745,19 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4631,10 +5786,19 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>1</v>
       </c>
@@ -4663,10 +5827,19 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4695,10 +5868,19 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>1</v>
       </c>
@@ -4727,10 +5909,19 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4759,10 +5950,19 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4791,10 +5991,19 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>1</v>
       </c>
@@ -4823,10 +6032,19 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4855,10 +6073,19 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4889,8 +6116,17 @@
       <c r="J139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4919,10 +6155,19 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4951,10 +6196,19 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4983,10 +6237,19 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>1</v>
       </c>
@@ -5015,10 +6278,19 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>1</v>
       </c>
@@ -5026,13 +6298,13 @@
         <v>0</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -5047,10 +6319,19 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>1</v>
       </c>
@@ -5079,10 +6360,19 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>1</v>
       </c>
@@ -5111,10 +6401,19 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>1</v>
       </c>
@@ -5143,10 +6442,19 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>1</v>
       </c>
@@ -5175,10 +6483,19 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>1</v>
       </c>
@@ -5207,10 +6524,19 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>1</v>
       </c>
@@ -5241,8 +6567,17 @@
       <c r="J150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>1</v>
       </c>
@@ -5273,8 +6608,17 @@
       <c r="J151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>1</v>
       </c>
@@ -5305,8 +6649,17 @@
       <c r="J152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>1</v>
       </c>
@@ -5335,10 +6688,19 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>1</v>
       </c>
@@ -5367,10 +6729,19 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>1</v>
       </c>
@@ -5399,10 +6770,19 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>1</v>
       </c>
@@ -5431,10 +6811,19 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>1</v>
       </c>
@@ -5463,10 +6852,19 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5495,10 +6893,19 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>1</v>
       </c>
@@ -5527,10 +6934,19 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5559,10 +6975,19 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>1</v>
       </c>
@@ -5591,10 +7016,19 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>1</v>
       </c>
@@ -5623,10 +7057,19 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>1</v>
       </c>
@@ -5655,10 +7098,19 @@
         <v>0</v>
       </c>
       <c r="J163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>1</v>
       </c>
@@ -5689,8 +7141,17 @@
       <c r="J164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>1</v>
       </c>
@@ -5719,10 +7180,19 @@
         <v>0</v>
       </c>
       <c r="J165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>1</v>
       </c>
@@ -5751,10 +7221,19 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>1</v>
       </c>
@@ -5783,10 +7262,19 @@
         <v>0</v>
       </c>
       <c r="J167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>1</v>
       </c>
@@ -5815,10 +7303,19 @@
         <v>0</v>
       </c>
       <c r="J168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>1</v>
       </c>
@@ -5847,10 +7344,19 @@
         <v>0</v>
       </c>
       <c r="J169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>1</v>
       </c>
@@ -5879,10 +7385,19 @@
         <v>0</v>
       </c>
       <c r="J170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>1</v>
       </c>
@@ -5911,10 +7426,19 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>1</v>
       </c>
@@ -5943,10 +7467,19 @@
         <v>0</v>
       </c>
       <c r="J172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>1</v>
       </c>
@@ -5975,10 +7508,19 @@
         <v>0</v>
       </c>
       <c r="J173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>1</v>
       </c>
@@ -6007,10 +7549,19 @@
         <v>0</v>
       </c>
       <c r="J174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>1</v>
       </c>
@@ -6039,10 +7590,19 @@
         <v>0</v>
       </c>
       <c r="J175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>1</v>
       </c>
@@ -6071,10 +7631,19 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>1</v>
       </c>
@@ -6103,10 +7672,19 @@
         <v>0</v>
       </c>
       <c r="J177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>1</v>
       </c>
@@ -6135,10 +7713,19 @@
         <v>0</v>
       </c>
       <c r="J178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>1</v>
       </c>
@@ -6167,10 +7754,19 @@
         <v>0</v>
       </c>
       <c r="J179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>1</v>
       </c>
@@ -6199,10 +7795,19 @@
         <v>0</v>
       </c>
       <c r="J180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>1</v>
       </c>
@@ -6231,10 +7836,19 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>1</v>
       </c>
@@ -6263,10 +7877,19 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>1</v>
       </c>
@@ -6295,10 +7918,19 @@
         <v>0</v>
       </c>
       <c r="J183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>1</v>
       </c>
@@ -6327,10 +7959,19 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>1</v>
       </c>
@@ -6359,10 +8000,19 @@
         <v>0</v>
       </c>
       <c r="J185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>1</v>
       </c>
@@ -6391,10 +8041,19 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>1</v>
       </c>
@@ -6423,10 +8082,19 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>1</v>
       </c>
@@ -6455,10 +8123,19 @@
         <v>0</v>
       </c>
       <c r="J188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>1</v>
       </c>
@@ -6487,10 +8164,19 @@
         <v>0</v>
       </c>
       <c r="J189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>1</v>
       </c>
@@ -6519,10 +8205,19 @@
         <v>0</v>
       </c>
       <c r="J190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>1</v>
       </c>
@@ -6551,10 +8246,19 @@
         <v>0</v>
       </c>
       <c r="J191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>1</v>
       </c>
@@ -6583,10 +8287,19 @@
         <v>0</v>
       </c>
       <c r="J192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>1</v>
       </c>
@@ -6615,10 +8328,19 @@
         <v>0</v>
       </c>
       <c r="J193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>1</v>
       </c>
@@ -6647,10 +8369,19 @@
         <v>0</v>
       </c>
       <c r="J194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>1</v>
       </c>
@@ -6676,13 +8407,22 @@
         <v>0</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>1</v>
       </c>
@@ -6705,16 +8445,25 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>0</v>
       </c>
       <c r="J196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>1</v>
       </c>
@@ -6743,10 +8492,19 @@
         <v>0</v>
       </c>
       <c r="J197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>1</v>
       </c>
@@ -6775,10 +8533,19 @@
         <v>0</v>
       </c>
       <c r="J198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>1</v>
       </c>
@@ -6801,16 +8568,25 @@
         <v>0</v>
       </c>
       <c r="H199" s="3">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
         <v>4</v>
       </c>
-      <c r="I199">
-        <v>0</v>
-      </c>
-      <c r="J199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>1</v>
       </c>
@@ -6839,13 +8615,49 @@
         <v>1</v>
       </c>
       <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B1:J1 B10:D10 G17:I17 G18 B25:C25 B26 C31:E31 E35:F36 F52:I52 F53 B60:C60 C69:D69 E80:G80 F76 B86:C86 F57 F89:I89 I65 J2:J149 B45:C46 D46 C47:D47 B96:E96 H96:I96 I97 B106:G106 J151:J199 A1:A200 B200:J200 B112:C112 F113:I113 B116:C116 B127:E127 B135:F135 H139:I139 B155:G155 B150:J150 H151:I152 G164:I164 B171:D171 B163 B180:D180 D179 C178:C179 F184:I184 B191">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="H200">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H199">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M200">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ECE97DE6-01B6-4D40-B494-0F027719FDE3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:I1 B10:D10 G17:I17 G18 B25:C25 B26 C31:E31 E35:F36 F52:I52 F53 B60:C60 C69:D69 E80:G80 F76 B86:C86 F57 F89:I89 I65 B45:C46 D46 C47:D47 B96:E96 H96:I96 I97 B106:G106 A1:A200 B200:I200 B112:C112 F113:I113 B116:C116 B127:E127 B135:F135 H139:I139 B155:G155 B150:I150 H151:I152 G164:I164 B171:D171 B163 B180:D180 D179 C178:C179 F184:I184 B191">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6858,18 +8670,51 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="J17 J1 J52 J89 J65 J96:J97 J200 J113 J139 J150:J152 J164 J184">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
+        <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1DC31C97-D28A-4D92-A4D8-2247B11BF06F}</x14:id>
+          <x14:id>{E8CA68B5-C849-4F36-9807-1278644C52F6}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17 K1 K52 K89 K65 K96:K97 K200 K113 K139 K150:K152 K164 K184">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E790CC66-EB4F-413E-9577-16F8DF2BCCBA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17 L1 L52 L89 L65 L96:L97 L200 L113 L139 L150:L152 L164 L184">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ADCC21D1-FDD3-4842-87B0-198252612601}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K199">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6878,22 +8723,49 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ECE97DE6-01B6-4D40-B494-0F027719FDE3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M1:M200</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CA10A92E-8FC7-4211-B450-C08322D1CEBF}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:J1 B10:D10 G17:I17 G18 B25:C25 B26 C31:E31 E35:F36 F52:I52 F53 B60:C60 C69:D69 E80:G80 F76 B86:C86 F57 F89:I89 I65 J2:J149 B45:C46 D46 C47:D47 B96:E96 H96:I96 I97 B106:G106 J151:J199 A1:A200 B200:J200 B112:C112 F113:I113 B116:C116 B127:E127 B135:F135 H139:I139 B155:G155 B150:J150 H151:I152 G164:I164 B171:D171 B163 B180:D180 D179 C178:C179 F184:I184 B191</xm:sqref>
+          <xm:sqref>B1:I1 B10:D10 G17:I17 G18 B25:C25 B26 C31:E31 E35:F36 F52:I52 F53 B60:C60 C69:D69 E80:G80 F76 B86:C86 F57 F89:I89 I65 B45:C46 D46 C47:D47 B96:E96 H96:I96 I97 B106:G106 A1:A200 B200:I200 B112:C112 F113:I113 B116:C116 B127:E127 B135:F135 H139:I139 B155:G155 B150:I150 H151:I152 G164:I164 B171:D171 B163 B180:D180 D179 C178:C179 F184:I184 B191</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1DC31C97-D28A-4D92-A4D8-2247B11BF06F}">
+          <x14:cfRule type="dataBar" id="{E8CA68B5-C849-4F36-9807-1278644C52F6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>J17 J1 J52 J89 J65 J96:J97 J200 J113 J139 J150:J152 J164 J184</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E790CC66-EB4F-413E-9577-16F8DF2BCCBA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K17 K1 K52 K89 K65 K96:K97 K200 K113 K139 K150:K152 K164 K184</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ADCC21D1-FDD3-4842-87B0-198252612601}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L17 L1 L52 L89 L65 L96:L97 L200 L113 L139 L150:L152 L164 L184</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/チーム製作　あんぱんオリジナルゲーム/Book1.xlsx
+++ b/チーム製作　あんぱんオリジナルゲーム/Book1.xlsx
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="K195" sqref="K195"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1838,6 +1838,12 @@
         <v>0</v>
       </c>
       <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">

--- a/チーム製作　あんぱんオリジナルゲーム/Book1.xlsx
+++ b/チーム製作　あんぱんオリジナルゲーム/Book1.xlsx
@@ -90,7 +90,179 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -427,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -684,13 +856,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -807,13 +979,13 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -8586,7 +8758,7 @@
         <v>4</v>
       </c>
       <c r="L199">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M199">
         <v>1</v>
@@ -8636,20 +8808,20 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="H200">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H199">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M200">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8663,7 +8835,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:I1 B10:D10 G17:I17 G18 B25:C25 B26 C31:E31 E35:F36 F52:I52 F53 B60:C60 C69:D69 E80:G80 F76 B86:C86 F57 F89:I89 I65 B45:C46 D46 C47:D47 B96:E96 H96:I96 I97 B106:G106 A1:A200 B200:I200 B112:C112 F113:I113 B116:C116 B127:E127 B135:F135 H139:I139 B155:G155 B150:I150 H151:I152 G164:I164 B171:D171 B163 B180:D180 D179 C178:C179 F184:I184 B191">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8677,7 +8849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17 J1 J52 J89 J65 J96:J97 J200 J113 J139 J150:J152 J164 J184">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8691,7 +8863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17 K1 K52 K89 K65 K96:K97 K200 K113 K139 K150:K152 K164 K184">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8705,7 +8877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17 L1 L52 L89 L65 L96:L97 L200 L113 L139 L150:L152 L164 L184">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8719,8 +8891,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L199">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>4</formula>
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/チーム製作　あんぱんオリジナルゲーム/Book1.xlsx
+++ b/チーム製作　あんぱんオリジナルゲーム/Book1.xlsx
@@ -44,7 +44,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,8 +68,14 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -125,19 +131,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -158,10 +151,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="アクセント 5" xfId="1" builtinId="45"/>
@@ -470,7 +463,7 @@
   <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -482,37 +475,37 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="5">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1" s="5">
-        <v>1</v>
-      </c>
-      <c r="I1" s="5">
-        <v>1</v>
-      </c>
-      <c r="J1" s="5">
-        <v>1</v>
-      </c>
-      <c r="K1" s="5">
-        <v>1</v>
-      </c>
-      <c r="L1" s="5">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
         <v>1</v>
       </c>
       <c r="M1" s="1">
@@ -822,8 +815,8 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
+      <c r="F9" s="1">
+        <v>1</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -851,16 +844,16 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>2</v>
       </c>
       <c r="F10" s="2">
@@ -1112,8 +1105,8 @@
       <c r="F16" s="2">
         <v>0</v>
       </c>
-      <c r="G16" s="2">
-        <v>0</v>
+      <c r="G16" s="4">
+        <v>1</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1607,8 +1600,8 @@
       <c r="G28" s="2">
         <v>0</v>
       </c>
-      <c r="H28" s="2">
-        <v>0</v>
+      <c r="H28" s="1">
+        <v>1</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
@@ -2550,8 +2543,8 @@
       <c r="G51" s="2">
         <v>0</v>
       </c>
-      <c r="H51" s="2">
-        <v>0</v>
+      <c r="H51" s="4">
+        <v>1</v>
       </c>
       <c r="I51" s="2">
         <v>0</v>
@@ -4357,8 +4350,8 @@
       <c r="H95" s="2">
         <v>0</v>
       </c>
-      <c r="I95" s="2">
-        <v>0</v>
+      <c r="I95" s="4">
+        <v>1</v>
       </c>
       <c r="J95" s="2">
         <v>0</v>
@@ -4749,8 +4742,8 @@
       <c r="B105" s="2">
         <v>0</v>
       </c>
-      <c r="C105" s="2">
-        <v>0</v>
+      <c r="C105" s="1">
+        <v>1</v>
       </c>
       <c r="D105" s="2">
         <v>0</v>
@@ -4764,8 +4757,8 @@
       <c r="G105" s="2">
         <v>0</v>
       </c>
-      <c r="H105" s="2">
-        <v>0</v>
+      <c r="H105" s="1">
+        <v>1</v>
       </c>
       <c r="I105" s="2">
         <v>0</v>
@@ -5341,8 +5334,8 @@
       <c r="H119" s="2">
         <v>0</v>
       </c>
-      <c r="I119" s="2">
-        <v>0</v>
+      <c r="I119" s="4">
+        <v>1</v>
       </c>
       <c r="J119" s="2">
         <v>0</v>
@@ -6568,8 +6561,8 @@
       <c r="G149" s="2">
         <v>0</v>
       </c>
-      <c r="H149" s="2">
-        <v>0</v>
+      <c r="H149" s="4">
+        <v>1</v>
       </c>
       <c r="I149" s="2">
         <v>0</v>
@@ -6600,11 +6593,11 @@
       <c r="D150" s="2">
         <v>0</v>
       </c>
-      <c r="E150" s="2">
-        <v>0</v>
-      </c>
-      <c r="F150" s="1">
-        <v>1</v>
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F150" s="9">
+        <v>0</v>
       </c>
       <c r="G150" s="2">
         <v>0</v>
@@ -6761,8 +6754,8 @@
       <c r="C154" s="2">
         <v>0</v>
       </c>
-      <c r="D154" s="2">
-        <v>0</v>
+      <c r="D154" s="1">
+        <v>1</v>
       </c>
       <c r="E154" s="2">
         <v>0</v>
@@ -7139,8 +7132,8 @@
       <c r="F163" s="2">
         <v>0</v>
       </c>
-      <c r="G163" s="2">
-        <v>0</v>
+      <c r="G163" s="1">
+        <v>1</v>
       </c>
       <c r="H163" s="2">
         <v>0</v>
@@ -8413,8 +8406,8 @@
       <c r="G194" s="2">
         <v>0</v>
       </c>
-      <c r="H194" s="2">
-        <v>0</v>
+      <c r="H194" s="1">
+        <v>1</v>
       </c>
       <c r="I194" s="2">
         <v>0</v>
@@ -8495,8 +8488,8 @@
       <c r="G196" s="2">
         <v>0</v>
       </c>
-      <c r="H196" s="1">
-        <v>1</v>
+      <c r="H196" s="9">
+        <v>0</v>
       </c>
       <c r="I196" s="2">
         <v>0</v>
@@ -8627,7 +8620,7 @@
       <c r="J199" s="2">
         <v>0</v>
       </c>
-      <c r="K199" s="7">
+      <c r="K199" s="6">
         <v>4</v>
       </c>
       <c r="L199" s="2">
@@ -8641,37 +8634,37 @@
       <c r="A200" s="1">
         <v>1</v>
       </c>
-      <c r="B200" s="6">
-        <v>1</v>
-      </c>
-      <c r="C200" s="6">
-        <v>1</v>
-      </c>
-      <c r="D200" s="6">
-        <v>1</v>
-      </c>
-      <c r="E200" s="6">
-        <v>1</v>
-      </c>
-      <c r="F200" s="6">
-        <v>1</v>
-      </c>
-      <c r="G200" s="6">
-        <v>1</v>
-      </c>
-      <c r="H200" s="6">
-        <v>1</v>
-      </c>
-      <c r="I200" s="6">
-        <v>1</v>
-      </c>
-      <c r="J200" s="6">
-        <v>1</v>
-      </c>
-      <c r="K200" s="6">
-        <v>1</v>
-      </c>
-      <c r="L200" s="6">
+      <c r="B200" s="5">
+        <v>1</v>
+      </c>
+      <c r="C200" s="5">
+        <v>1</v>
+      </c>
+      <c r="D200" s="5">
+        <v>1</v>
+      </c>
+      <c r="E200" s="5">
+        <v>1</v>
+      </c>
+      <c r="F200" s="5">
+        <v>1</v>
+      </c>
+      <c r="G200" s="5">
+        <v>1</v>
+      </c>
+      <c r="H200" s="5">
+        <v>1</v>
+      </c>
+      <c r="I200" s="5">
+        <v>1</v>
+      </c>
+      <c r="J200" s="5">
+        <v>1</v>
+      </c>
+      <c r="K200" s="5">
+        <v>1</v>
+      </c>
+      <c r="L200" s="5">
         <v>1</v>
       </c>
       <c r="M200" s="1">

--- a/チーム製作　あんぱんオリジナルゲーム/Book1.xlsx
+++ b/チーム製作　あんぱんオリジナルゲーム/Book1.xlsx
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K28" s="2">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K51" s="2">
         <v>0</v>

--- a/チーム製作　あんぱんオリジナルゲーム/Book1.xlsx
+++ b/チーム製作　あんぱんオリジナルゲーム/Book1.xlsx
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M35" s="4">
         <v>1</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D67" s="2">
         <v>0</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J69" s="2">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G79" s="2">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L94" s="2">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L100" s="2">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E105" s="2">
         <v>0</v>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H105" s="1">
         <v>1</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D111" s="2">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L119" s="2">
         <v>0</v>
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D124" s="2">
         <v>0</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L124" s="2">
         <v>0</v>
@@ -6123,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="L138" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M138" s="4">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="D140" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E140" s="2">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="L149" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M149" s="4">
         <v>1</v>
@@ -6758,7 +6758,7 @@
         <v>1</v>
       </c>
       <c r="E154" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F154" s="2">
         <v>0</v>
@@ -6922,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F158" s="2">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1</v>
       </c>
       <c r="H163" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I163" s="2">
         <v>0</v>
@@ -7405,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="B170" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="G171" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H171" s="2">
         <v>0</v>
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="F183" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G183" s="2">
         <v>0</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="K186" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L186" s="2">
         <v>0</v>
@@ -8225,7 +8225,7 @@
         <v>1</v>
       </c>
       <c r="B190" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="J192" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K192" s="2">
         <v>0</v>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="D194" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E194" s="2">
         <v>0</v>

--- a/チーム製作　あんぱんオリジナルゲーム/Book1.xlsx
+++ b/チーム製作　あんぱんオリジナルゲーム/Book1.xlsx
@@ -20,7 +20,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,14 +32,6 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -65,12 +57,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,13 +131,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -152,12 +142,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="アクセント 5" xfId="1" builtinId="45"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -462,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G188" sqref="G188"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -528,8 +516,8 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
+      <c r="F2" s="1">
+        <v>1</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -569,8 +557,8 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -610,8 +598,8 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
+      <c r="F4" s="1">
+        <v>1</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -651,8 +639,8 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
+      <c r="F5" s="1">
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -692,8 +680,8 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
+      <c r="F6" s="1">
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -733,8 +721,8 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -774,8 +762,8 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
+      <c r="F8" s="1">
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -815,8 +803,8 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
+      <c r="F9" s="7">
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -844,20 +832,20 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
         <v>2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -6596,7 +6584,7 @@
       <c r="E150" s="1">
         <v>1</v>
       </c>
-      <c r="F150" s="9">
+      <c r="F150" s="7">
         <v>0</v>
       </c>
       <c r="G150" s="2">
@@ -8488,7 +8476,7 @@
       <c r="G196" s="2">
         <v>0</v>
       </c>
-      <c r="H196" s="9">
+      <c r="H196" s="7">
         <v>0</v>
       </c>
       <c r="I196" s="2">

--- a/チーム製作　あんぱんオリジナルゲーム/Book1.xlsx
+++ b/チーム製作　あんぱんオリジナルゲーム/Book1.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -20,7 +20,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35,8 +35,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,6 +70,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -144,6 +174,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -450,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1099,7 +1135,7 @@
       <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="9">
         <v>5</v>
       </c>
       <c r="J16" s="2">
@@ -1292,7 +1328,7 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="11">
         <v>6</v>
       </c>
       <c r="F21" s="2">
@@ -1594,7 +1630,7 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="9">
         <v>5</v>
       </c>
       <c r="K28" s="2">
@@ -1690,11 +1726,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0</v>
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -1898,11 +1934,11 @@
       <c r="A36" s="3">
         <v>1</v>
       </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
@@ -1925,11 +1961,11 @@
       <c r="J36" s="2">
         <v>0</v>
       </c>
-      <c r="K36" s="2">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0</v>
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1</v>
       </c>
       <c r="M36" s="4">
         <v>1</v>
@@ -2113,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
@@ -2162,11 +2198,11 @@
       <c r="G42" s="2">
         <v>0</v>
       </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0</v>
+      <c r="H42" s="12">
+        <v>6</v>
+      </c>
+      <c r="I42" s="12">
+        <v>6</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
@@ -2537,7 +2573,7 @@
       <c r="I51" s="2">
         <v>0</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="9">
         <v>5</v>
       </c>
       <c r="K51" s="2">
@@ -2774,10 +2810,10 @@
       <c r="F57" s="1">
         <v>1</v>
       </c>
-      <c r="G57" s="2">
-        <v>6</v>
-      </c>
-      <c r="H57" s="2">
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
         <v>0</v>
       </c>
       <c r="I57" s="2">
@@ -2841,8 +2877,8 @@
       <c r="A59" s="3">
         <v>1</v>
       </c>
-      <c r="B59" s="2">
-        <v>0</v>
+      <c r="B59" s="14">
+        <v>5</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -3169,10 +3205,10 @@
       <c r="A67" s="3">
         <v>1</v>
       </c>
-      <c r="B67" s="2">
-        <v>0</v>
-      </c>
-      <c r="C67" s="2">
+      <c r="B67" s="13">
+        <v>6</v>
+      </c>
+      <c r="C67" s="13">
         <v>6</v>
       </c>
       <c r="D67" s="2">
@@ -3248,11 +3284,11 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
-        <v>1</v>
-      </c>
-      <c r="B69" s="2">
-        <v>0</v>
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -3272,7 +3308,7 @@
       <c r="H69" s="2">
         <v>0</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="11">
         <v>6</v>
       </c>
       <c r="J69" s="2">
@@ -3673,7 +3709,7 @@
       <c r="E79" s="2">
         <v>0</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="9">
         <v>5</v>
       </c>
       <c r="G79" s="2">
@@ -3726,11 +3762,11 @@
       <c r="I80" s="2">
         <v>0</v>
       </c>
-      <c r="J80" s="2">
-        <v>0</v>
-      </c>
-      <c r="K80" s="2">
-        <v>0</v>
+      <c r="J80" s="4">
+        <v>1</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1</v>
       </c>
       <c r="L80" s="4">
         <v>1</v>
@@ -3954,11 +3990,11 @@
       <c r="C86" s="3">
         <v>1</v>
       </c>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
-      <c r="E86" s="2">
-        <v>0</v>
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3">
+        <v>1</v>
       </c>
       <c r="F86" s="2">
         <v>0</v>
@@ -3990,13 +4026,13 @@
         <v>1</v>
       </c>
       <c r="B87" s="2">
+        <v>0</v>
+      </c>
+      <c r="C87" s="12">
         <v>6</v>
       </c>
-      <c r="C87" s="2">
-        <v>0</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0</v>
+      <c r="D87" s="12">
+        <v>6</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
@@ -4004,7 +4040,7 @@
       <c r="F87" s="2">
         <v>0</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87" s="9">
         <v>5</v>
       </c>
       <c r="H87" s="2">
@@ -4303,7 +4339,7 @@
       <c r="J94" s="2">
         <v>0</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94" s="9">
         <v>5</v>
       </c>
       <c r="L94" s="2">
@@ -4540,16 +4576,16 @@
       <c r="G100" s="2">
         <v>0</v>
       </c>
-      <c r="H100" s="2">
-        <v>0</v>
-      </c>
-      <c r="I100" s="2">
-        <v>0</v>
-      </c>
-      <c r="J100" s="2">
-        <v>0</v>
-      </c>
-      <c r="K100" s="2">
+      <c r="H100" s="11">
+        <v>6</v>
+      </c>
+      <c r="I100" s="7">
+        <v>0</v>
+      </c>
+      <c r="J100" s="7">
+        <v>0</v>
+      </c>
+      <c r="K100" s="11">
         <v>6</v>
       </c>
       <c r="L100" s="2">
@@ -4733,7 +4769,7 @@
       <c r="C105" s="1">
         <v>1</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="9">
         <v>5</v>
       </c>
       <c r="E105" s="2">
@@ -4742,7 +4778,7 @@
       <c r="F105" s="2">
         <v>0</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105" s="9">
         <v>5</v>
       </c>
       <c r="H105" s="1">
@@ -4757,8 +4793,8 @@
       <c r="K105" s="2">
         <v>0</v>
       </c>
-      <c r="L105" s="2">
-        <v>0</v>
+      <c r="L105" s="4">
+        <v>1</v>
       </c>
       <c r="M105" s="4">
         <v>1</v>
@@ -4976,7 +5012,7 @@
       <c r="B111" s="2">
         <v>0</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="11">
         <v>6</v>
       </c>
       <c r="D111" s="2">
@@ -5064,17 +5100,17 @@
       <c r="D113" s="2">
         <v>0</v>
       </c>
-      <c r="E113" s="2">
-        <v>0</v>
+      <c r="E113" s="1">
+        <v>1</v>
       </c>
       <c r="F113" s="1">
         <v>1</v>
       </c>
-      <c r="G113" s="2">
-        <v>0</v>
-      </c>
-      <c r="H113" s="2">
-        <v>0</v>
+      <c r="G113" s="1">
+        <v>1</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1</v>
       </c>
       <c r="I113" s="2">
         <v>0</v>
@@ -5184,11 +5220,11 @@
       <c r="C116" s="3">
         <v>1</v>
       </c>
-      <c r="D116" s="2">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2">
-        <v>0</v>
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1</v>
       </c>
       <c r="F116" s="2">
         <v>0</v>
@@ -5328,7 +5364,7 @@
       <c r="J119" s="2">
         <v>0</v>
       </c>
-      <c r="K119" s="2">
+      <c r="K119" s="9">
         <v>5</v>
       </c>
       <c r="L119" s="2">
@@ -5509,32 +5545,32 @@
       <c r="B124" s="2">
         <v>0</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="7">
+        <v>0</v>
+      </c>
+      <c r="D124" s="11">
         <v>6</v>
       </c>
-      <c r="D124" s="2">
-        <v>0</v>
-      </c>
       <c r="E124" s="2">
         <v>0</v>
       </c>
-      <c r="F124" s="2">
-        <v>0</v>
-      </c>
-      <c r="G124" s="2">
+      <c r="F124" s="11">
+        <v>6</v>
+      </c>
+      <c r="G124" s="7">
         <v>0</v>
       </c>
       <c r="H124" s="2">
         <v>0</v>
       </c>
-      <c r="I124" s="2">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2">
+      <c r="I124" s="11">
+        <v>6</v>
+      </c>
+      <c r="J124" s="7">
         <v>0</v>
       </c>
       <c r="K124" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L124" s="2">
         <v>0</v>
@@ -5796,17 +5832,17 @@
       <c r="B131" s="2">
         <v>0</v>
       </c>
-      <c r="C131" s="2">
-        <v>0</v>
-      </c>
-      <c r="D131" s="2">
-        <v>0</v>
-      </c>
-      <c r="E131" s="2">
-        <v>0</v>
-      </c>
-      <c r="F131" s="2">
-        <v>0</v>
+      <c r="C131" s="3">
+        <v>1</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1</v>
+      </c>
+      <c r="F131" s="3">
+        <v>1</v>
       </c>
       <c r="G131" s="2">
         <v>0</v>
@@ -5963,8 +5999,8 @@
       <c r="C135" s="3">
         <v>1</v>
       </c>
-      <c r="D135" s="2">
-        <v>0</v>
+      <c r="D135" s="1">
+        <v>1</v>
       </c>
       <c r="E135" s="1">
         <v>1</v>
@@ -6110,7 +6146,7 @@
       <c r="K138" s="2">
         <v>0</v>
       </c>
-      <c r="L138" s="2">
+      <c r="L138" s="10">
         <v>5</v>
       </c>
       <c r="M138" s="4">
@@ -6168,7 +6204,7 @@
       <c r="C140" s="2">
         <v>0</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="11">
         <v>6</v>
       </c>
       <c r="E140" s="2">
@@ -6183,8 +6219,8 @@
       <c r="H140" s="2">
         <v>0</v>
       </c>
-      <c r="I140" s="2">
-        <v>0</v>
+      <c r="I140" s="11">
+        <v>6</v>
       </c>
       <c r="J140" s="2">
         <v>0</v>
@@ -6561,7 +6597,7 @@
       <c r="K149" s="2">
         <v>0</v>
       </c>
-      <c r="L149" s="2">
+      <c r="L149" s="9">
         <v>5</v>
       </c>
       <c r="M149" s="4">
@@ -6745,7 +6781,7 @@
       <c r="D154" s="1">
         <v>1</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="9">
         <v>5</v>
       </c>
       <c r="F154" s="2">
@@ -6845,8 +6881,8 @@
       <c r="J156" s="2">
         <v>0</v>
       </c>
-      <c r="K156" s="2">
-        <v>0</v>
+      <c r="K156" s="9">
+        <v>5</v>
       </c>
       <c r="L156" s="2">
         <v>0</v>
@@ -6909,7 +6945,7 @@
       <c r="D158" s="2">
         <v>0</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="11">
         <v>6</v>
       </c>
       <c r="F158" s="2">
@@ -7123,7 +7159,7 @@
       <c r="G163" s="1">
         <v>1</v>
       </c>
-      <c r="H163" s="2">
+      <c r="H163" s="9">
         <v>5</v>
       </c>
       <c r="I163" s="2">
@@ -7149,11 +7185,11 @@
       <c r="B164" s="3">
         <v>1</v>
       </c>
-      <c r="C164" s="2">
-        <v>0</v>
-      </c>
-      <c r="D164" s="2">
-        <v>0</v>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="3">
+        <v>1</v>
       </c>
       <c r="E164" s="2">
         <v>0</v>
@@ -7392,7 +7428,7 @@
       <c r="A170" s="3">
         <v>1</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="9">
         <v>5</v>
       </c>
       <c r="C170" s="2">
@@ -7448,7 +7484,7 @@
       <c r="F171" s="2">
         <v>0</v>
       </c>
-      <c r="G171" s="2">
+      <c r="G171" s="11">
         <v>6</v>
       </c>
       <c r="H171" s="2">
@@ -7770,17 +7806,17 @@
       <c r="D179" s="3">
         <v>1</v>
       </c>
-      <c r="E179" s="2">
-        <v>0</v>
-      </c>
-      <c r="F179" s="2">
-        <v>0</v>
-      </c>
-      <c r="G179" s="2">
-        <v>0</v>
-      </c>
-      <c r="H179" s="2">
-        <v>0</v>
+      <c r="E179" s="3">
+        <v>1</v>
+      </c>
+      <c r="F179" s="3">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3">
+        <v>1</v>
+      </c>
+      <c r="H179" s="3">
+        <v>1</v>
       </c>
       <c r="I179" s="2">
         <v>0</v>
@@ -7937,7 +7973,7 @@
       <c r="E183" s="2">
         <v>0</v>
       </c>
-      <c r="F183" s="2">
+      <c r="F183" s="9">
         <v>5</v>
       </c>
       <c r="G183" s="2">
@@ -8075,7 +8111,7 @@
       <c r="J186" s="2">
         <v>0</v>
       </c>
-      <c r="K186" s="2">
+      <c r="K186" s="11">
         <v>6</v>
       </c>
       <c r="L186" s="2">
@@ -8212,7 +8248,7 @@
       <c r="A190" s="3">
         <v>1</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="9">
         <v>5</v>
       </c>
       <c r="C190" s="2">
@@ -8262,11 +8298,11 @@
       <c r="D191" s="3">
         <v>1</v>
       </c>
-      <c r="E191" s="2">
-        <v>0</v>
-      </c>
-      <c r="F191" s="2">
-        <v>0</v>
+      <c r="E191" s="3">
+        <v>1</v>
+      </c>
+      <c r="F191" s="3">
+        <v>1</v>
       </c>
       <c r="G191" s="2">
         <v>0</v>
@@ -8318,7 +8354,7 @@
       <c r="I192" s="2">
         <v>0</v>
       </c>
-      <c r="J192" s="2">
+      <c r="J192" s="9">
         <v>5</v>
       </c>
       <c r="K192" s="2">
@@ -8382,14 +8418,14 @@
       <c r="C194" s="2">
         <v>0</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194" s="11">
         <v>6</v>
       </c>
-      <c r="E194" s="2">
-        <v>0</v>
-      </c>
-      <c r="F194" s="2">
-        <v>0</v>
+      <c r="E194" s="11">
+        <v>6</v>
+      </c>
+      <c r="F194" s="11">
+        <v>6</v>
       </c>
       <c r="G194" s="2">
         <v>0</v>
